--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.54375</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9456521739130435</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5329341317365269</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4730538922155689</v>
+        <v>0.4940119760479042</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.05624676297581599</v>
+        <v>0.08650384893086045</v>
       </c>
       <c r="J2" t="n">
-        <v>730.6528641846173</v>
+        <v>1129.613731490211</v>
       </c>
       <c r="K2" t="n">
-        <v>802415.0682149776</v>
+        <v>1751225.401936548</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7762378043848</v>
+        <v>1323.338732878528</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8512024538497254</v>
+        <v>0.6752577900314625</v>
       </c>
     </row>
   </sheetData>
